--- a/fhir/ig/iq/StructureDefinition-BundleEntrevistaLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-BundleEntrevistaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:55:58-03:00</t>
+    <t>2024-12-16T14:50:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,7 +579,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>89</v>

--- a/fhir/ig/iq/StructureDefinition-BundleEntrevistaLE.xlsx
+++ b/fhir/ig/iq/StructureDefinition-BundleEntrevistaLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:11-03:00</t>
+    <t>2024-12-17T10:27:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
